--- a/src/_static/xlsx/tab_tipo_mutazione_residenza.xlsx
+++ b/src/_static/xlsx/tab_tipo_mutazione_residenza.xlsx
@@ -33,10 +33,10 @@
     <t>Dimora abituale</t>
   </si>
   <si>
-    <t>Dimora eletto</t>
+    <t>Ripristino residenza ante subentro</t>
   </si>
   <si>
-    <t>Ripristino residenza ante subentro</t>
+    <t>Domicilio eletto</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -521,15 +521,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -643,6 +634,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -650,14 +650,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EADACEF-51D5-4A38-9CE7-2DDFA85BD7D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A838EA3F-6D46-400D-B10E-D3AC744F50C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -673,17 +665,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EADACEF-51D5-4A38-9CE7-2DDFA85BD7D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A83983-DAA3-4CE3-9477-78D8A0CBB621}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>